--- a/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E08766E-1A68-4D41-806F-2CBB4CC4FB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2321A8D6-E825-431C-A753-4D650FDAA434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>作成者</t>
   </si>
@@ -185,6 +185,82 @@
   <si>
     <t>addCategory
 (formCartegory:FormCategory)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリテーブルのデータサイズと期待するデータサイズが一致すること
+日用品を登録した場合のデータサイズ：4</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のデータを商品カテゴリテーブルに登録できること
+categoryName:日用品</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当該メソッドを実行し、商品カテゴリリストを取得すること</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリテーブルのデータサイズと期待するデータサイズが一致すること
+初期の商品カテゴリデータサイズ：3</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウヒン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -255,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -337,26 +413,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,16 +457,25 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,27 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -795,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -816,25 +867,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,23 +900,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -903,20 +954,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -926,97 +977,81 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="1:17" ht="42" customHeight="1">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="14">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2321A8D6-E825-431C-A753-4D650FDAA434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25736B37-F67F-492F-A093-72C522767F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,19 +170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日本証券テクノロジー株式会社</t>
-    <rPh sb="0" eb="2">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウケン</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>addCategory
 (formCartegory:FormCategory)</t>
     <phoneticPr fontId="2"/>
@@ -261,6 +248,10 @@
     <rPh sb="39" eb="41">
       <t>ショウヒン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FS</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -463,38 +454,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -848,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -867,25 +858,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,27 +887,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -954,20 +945,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="20" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -977,37 +968,37 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1016,34 +1007,28 @@
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1052,6 +1037,12 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25736B37-F67F-492F-A093-72C522767F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0512B3A-DE9B-4A3A-BEAA-CDDE2D321EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,7 +251,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FS</t>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -454,10 +457,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,15 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -840,7 +843,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L6"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -858,25 +861,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,23 +894,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -945,20 +948,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -968,10 +971,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -980,25 +983,25 @@
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1007,28 +1010,34 @@
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1037,12 +1046,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0512B3A-DE9B-4A3A-BEAA-CDDE2D321EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD94811-B9C1-4E8F-900F-18128F333F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>作成者</t>
   </si>
@@ -255,6 +255,17 @@
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>古市</t>
+    <rPh sb="0" eb="2">
+      <t>フルイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -413,7 +424,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,38 +468,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -843,7 +857,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -861,25 +875,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,23 +908,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -920,7 +934,9 @@
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
@@ -948,20 +964,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="20" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -971,10 +987,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -983,25 +999,31 @@
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="26">
+        <v>45503</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1010,34 +1032,34 @@
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="26">
+        <v>45503</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1046,6 +1068,12 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductCategoryService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD94811-B9C1-4E8F-900F-18128F333F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC55177E-631F-4BAB-80D5-CE7C61D61130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>作成者</t>
   </si>
@@ -266,6 +266,66 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>isCategoryNameDuplicate(CategoryForm categoryForm)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当該メソッドを(categoryName="雑貨")で実行する</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当該メソッドを(categoryName="日用品")で実行する</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雑貨はDBに存在しているので、trueが返ってくること</t>
+    <rPh sb="0" eb="2">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雑貨はDBに存在しているので、falseが返ってくること</t>
+    <rPh sb="0" eb="2">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -336,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -418,13 +478,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,10 +541,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,17 +577,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -875,25 +954,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,23 +987,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -971,13 +1050,13 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -999,31 +1078,31 @@
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="15">
         <v>45503</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1032,34 +1111,111 @@
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="15">
         <v>45503</v>
       </c>
       <c r="O6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="1:17" ht="45" customHeight="1">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="15">
+        <v>45503</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" ht="43.5" customHeight="1">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="15">
+        <v>45503</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="21">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1068,12 +1224,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
